--- a/db/Beta Test Customer List 5-07-12 WK.xlsx
+++ b/db/Beta Test Customer List 5-07-12 WK.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="780" windowWidth="30520" windowHeight="10760"/>
+    <workbookView xWindow="-40" yWindow="160" windowWidth="22680" windowHeight="14280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="157">
+  <si>
+    <t>Leigh-Anne Stanley</t>
+  </si>
+  <si>
+    <t>leighstanley25@gmail.com</t>
+  </si>
+  <si>
+    <t>901-377-2949</t>
+  </si>
+  <si>
+    <t>Tabor Ortho PT Bartlett</t>
+  </si>
+  <si>
+    <t>2996 Kate Bond Road</t>
+  </si>
+  <si>
+    <t>Suite 305</t>
+  </si>
+  <si>
+    <t>Bartlett</t>
+  </si>
+  <si>
+    <t>kathy@destinchiropractor.com</t>
+  </si>
+  <si>
+    <t>brigina.wilkerson@orthotennessee.com</t>
+  </si>
+  <si>
+    <t>dbrauning@idealrehab.com</t>
+  </si>
+  <si>
+    <t>Suite A117</t>
+  </si>
+  <si>
+    <t>Scottsdale</t>
+  </si>
+  <si>
+    <t>8300 North Hayden Road</t>
+  </si>
+  <si>
+    <t>480-222-0655</t>
+  </si>
+  <si>
+    <t>kristy.andrews@pinnacle-ortho.com</t>
+  </si>
+  <si>
+    <t>whitney.thackston@pinnacle-ortho.com</t>
+  </si>
+  <si>
+    <t>katrina.fears@pinnacle-ortho.com</t>
+  </si>
+  <si>
+    <t>tsanford@siskinrehab.org</t>
+  </si>
+  <si>
+    <t>Tim Sanford</t>
+  </si>
+  <si>
+    <t>(Denise Kidd wants to admin the ordering admins and approve)/Kristy Shenk</t>
+  </si>
+  <si>
+    <t>Dan Brauning (Dan wants to admin the ordering admins and approve orders) Dan cell 480-528-5657</t>
+  </si>
+  <si>
+    <t>Customer #</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Clinic Name</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Andrews Institute Gulf Breeze</t>
+  </si>
+  <si>
+    <t>1040 Gulf Breeze Parkway</t>
+  </si>
+  <si>
+    <t>Suite 100</t>
+  </si>
+  <si>
+    <t>Ben Daughtery</t>
+  </si>
+  <si>
+    <t>Gulf Breeze</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Daniel Bishop</t>
+  </si>
+  <si>
+    <t>Bishop Physical Therapy</t>
+  </si>
+  <si>
+    <t>1203 US Highway 98</t>
+  </si>
+  <si>
+    <t>Suite 1-C</t>
+  </si>
+  <si>
+    <t>Daphne</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Brent Holtgrewe</t>
+  </si>
+  <si>
+    <t>First Choice Therapy Services</t>
+  </si>
+  <si>
+    <t>2300 Jenks Avenue</t>
+  </si>
+  <si>
+    <t>Suite C</t>
+  </si>
+  <si>
+    <t>Lynn Haven</t>
+  </si>
+  <si>
+    <t>Kathy Whidden</t>
+  </si>
+  <si>
+    <t>Emerald Coast Chiropractic</t>
+  </si>
+  <si>
+    <t>501 Harbor Blvd.</t>
+  </si>
+  <si>
+    <t>Destin</t>
+  </si>
+  <si>
+    <t>TMS Rep</t>
+  </si>
+  <si>
+    <t>Drew Hurley</t>
+  </si>
+  <si>
+    <t>Phone #</t>
+  </si>
+  <si>
+    <t>Brigina Wilkerson</t>
+  </si>
+  <si>
+    <t>Ortho Tennessee Therapy</t>
+  </si>
+  <si>
+    <t>260 Fort Sanders West Blvd.</t>
+  </si>
+  <si>
+    <t>Suite 110</t>
+  </si>
+  <si>
+    <t>Knoxville</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Bo Hughes</t>
+  </si>
+  <si>
+    <t>865-558-4491</t>
+  </si>
+  <si>
+    <t>Kent Silvey</t>
+  </si>
+  <si>
+    <t>423-490-2248</t>
+  </si>
+  <si>
+    <t>Health Center at Standifer Place</t>
+  </si>
+  <si>
+    <t>2626 Walker Road</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Pablo Alvarez</t>
+  </si>
+  <si>
+    <t>alpha1697</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
   <si>
     <t>Allen Hughes Medical Equipment</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -306,210 +514,6 @@
   </si>
   <si>
     <t>kentsilvey@standiferplace.org</t>
-  </si>
-  <si>
-    <t>Leigh-Anne Stanley</t>
-  </si>
-  <si>
-    <t>leighstanley25@gmail.com</t>
-  </si>
-  <si>
-    <t>901-377-2949</t>
-  </si>
-  <si>
-    <t>Tabor Ortho PT Bartlett</t>
-  </si>
-  <si>
-    <t>2996 Kate Bond Road</t>
-  </si>
-  <si>
-    <t>Suite 305</t>
-  </si>
-  <si>
-    <t>Bartlett</t>
-  </si>
-  <si>
-    <t>kathy@destinchiropractor.com</t>
-  </si>
-  <si>
-    <t>brigina.wilkerson@orthotennessee.com</t>
-  </si>
-  <si>
-    <t>dbrauning@idealrehab.com</t>
-  </si>
-  <si>
-    <t>Suite A117</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>8300 North Hayden Road</t>
-  </si>
-  <si>
-    <t>480-222-0655</t>
-  </si>
-  <si>
-    <t>kristy.andrews@pinnacle-ortho.com</t>
-  </si>
-  <si>
-    <t>whitney.thackston@pinnacle-ortho.com</t>
-  </si>
-  <si>
-    <t>katrina.fears@pinnacle-ortho.com</t>
-  </si>
-  <si>
-    <t>tsanford@siskinrehab.org</t>
-  </si>
-  <si>
-    <t>Tim Sanford</t>
-  </si>
-  <si>
-    <t>(Denise Kidd wants to admin the ordering admins and approve)/Kristy Shenk</t>
-  </si>
-  <si>
-    <t>Dan Brauning (Dan wants to admin the ordering admins and approve orders) Dan cell 480-528-5657</t>
-  </si>
-  <si>
-    <t>Customer #</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
-    <t>Clinic Name</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Andrews Institute Gulf Breeze</t>
-  </si>
-  <si>
-    <t>1040 Gulf Breeze Parkway</t>
-  </si>
-  <si>
-    <t>Suite 100</t>
-  </si>
-  <si>
-    <t>Ben Daughtery</t>
-  </si>
-  <si>
-    <t>Gulf Breeze</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Daniel Bishop</t>
-  </si>
-  <si>
-    <t>Bishop Physical Therapy</t>
-  </si>
-  <si>
-    <t>1203 US Highway 98</t>
-  </si>
-  <si>
-    <t>Suite 1-C</t>
-  </si>
-  <si>
-    <t>Daphne</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Brent Holtgrewe</t>
-  </si>
-  <si>
-    <t>First Choice Therapy Services</t>
-  </si>
-  <si>
-    <t>2300 Jenks Avenue</t>
-  </si>
-  <si>
-    <t>Suite C</t>
-  </si>
-  <si>
-    <t>Lynn Haven</t>
-  </si>
-  <si>
-    <t>Kathy Whidden</t>
-  </si>
-  <si>
-    <t>Emerald Coast Chiropractic</t>
-  </si>
-  <si>
-    <t>501 Harbor Blvd.</t>
-  </si>
-  <si>
-    <t>Destin</t>
-  </si>
-  <si>
-    <t>TMS Rep</t>
-  </si>
-  <si>
-    <t>Drew Hurley</t>
-  </si>
-  <si>
-    <t>Phone #</t>
-  </si>
-  <si>
-    <t>Brigina Wilkerson</t>
-  </si>
-  <si>
-    <t>Ortho Tennessee Therapy</t>
-  </si>
-  <si>
-    <t>260 Fort Sanders West Blvd.</t>
-  </si>
-  <si>
-    <t>Suite 110</t>
-  </si>
-  <si>
-    <t>Knoxville</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Bo Hughes</t>
-  </si>
-  <si>
-    <t>865-558-4491</t>
-  </si>
-  <si>
-    <t>Kent Silvey</t>
-  </si>
-  <si>
-    <t>423-490-2248</t>
-  </si>
-  <si>
-    <t>Health Center at Standifer Place</t>
-  </si>
-  <si>
-    <t>2626 Walker Road</t>
-  </si>
-  <si>
-    <t>Chattanooga</t>
-  </si>
-  <si>
-    <t>Pablo Alvarez</t>
   </si>
 </sst>
 </file>
@@ -970,7 +974,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -993,40 +997,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
@@ -1034,34 +1038,34 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="L2" s="7">
         <v>92008</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1">
@@ -1069,35 +1073,35 @@
         <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="13" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="L3" s="15">
         <v>30106</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
@@ -1105,34 +1109,34 @@
         <v>20</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="L4" s="7">
         <v>30060</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
@@ -1140,37 +1144,37 @@
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L5" s="7">
         <v>37421</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1">
@@ -1178,34 +1182,34 @@
         <v>48</v>
       </c>
       <c r="C6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="J6" s="17" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L6" s="19">
         <v>37403</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
@@ -1213,37 +1217,37 @@
         <v>85</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7">
         <v>30024</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
@@ -1251,37 +1255,37 @@
         <v>86</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7">
         <v>38133</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
@@ -1289,37 +1293,37 @@
         <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="L9" s="7">
         <v>85258</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
@@ -1327,37 +1331,37 @@
         <v>115</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7">
         <v>30189</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
@@ -1365,34 +1369,34 @@
         <v>224</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L11" s="7">
         <v>37421</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1">
@@ -1400,34 +1404,34 @@
         <v>234</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L12" s="19">
         <v>37421</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
@@ -1435,37 +1439,37 @@
         <v>576</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7">
         <v>37922</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
@@ -1473,34 +1477,34 @@
         <v>1259</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7">
         <v>30076</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
@@ -1508,37 +1512,37 @@
         <v>1661</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7">
         <v>32444</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
@@ -1546,37 +1550,37 @@
         <v>1738</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7">
         <v>36526</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
@@ -1584,37 +1588,37 @@
         <v>1788</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7">
         <v>32561</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1">
@@ -1622,37 +1626,37 @@
         <v>1812</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="L18" s="19">
         <v>32541</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
@@ -1660,37 +1664,37 @@
         <v>1816</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="L19" s="9">
         <v>33566</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -1704,7 +1708,10 @@
         <v>1697</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>139</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
@@ -1715,7 +1722,7 @@
         <v>1736</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
@@ -1726,7 +1733,7 @@
         <v>2125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
@@ -1762,7 +1769,6 @@
     <hyperlink ref="D6" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1779,7 +1785,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -1797,7 +1802,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
